--- a/dazhi_network_setting/pyexcel/測試用活頁簿.xlsx
+++ b/dazhi_network_setting/pyexcel/測試用活頁簿.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bb4be4a3950f713/桌面/電腦文件相關/Django/Website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bb4be4a3950f713/桌面/電腦文件相關/Django/Website/dazhi_network_setting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C135216D-6A71-4308-BBE8-FFB39CEF73EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C135216D-6A71-4308-BBE8-FFB39CEF73EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E98ED26-F1E6-4DC0-9633-2FC853B62CBC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A0B359E-170A-4031-8909-F2037CE0FB24}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13548" windowHeight="8964" xr2:uid="{8A0B359E-170A-4031-8909-F2037CE0FB24}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -38,18 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王曉華</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +47,18 @@
   </si>
   <si>
     <t>張詩美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生/教師姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學號/教師代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所屬班級/單位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D968079-CF20-4DDE-BC23-4EA570804A9E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -446,18 +446,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>14456211</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>477784632</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>25478841</v>
